--- a/Result.xlsx
+++ b/Result.xlsx
@@ -952,17 +952,10 @@
   <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -626,7 +626,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -682,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,11 +987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
